--- a/mappings/solarchem-mapping.xlsx
+++ b/mappings/solarchem-mapping.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aiglesias/GitHub/solarchem-ontology/knowledge-graph/mappings/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aiglesias/GitHub/solarchem-kg/mappings/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCEC3420-F934-CE47-B86A-D4BB8DA2D8F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C657B674-50B7-5145-A270-903FCB1BF420}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28740" windowHeight="17500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="28740" windowHeight="17500" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prefix" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,9 @@
     <sheet name="Predicate_Object" sheetId="4" r:id="rId4"/>
     <sheet name="Function" sheetId="5" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Source!$A$1:$C$56</definedName>
+  </definedNames>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -154,9 +157,6 @@
     <t>format</t>
   </si>
   <si>
-    <t>data/catalystsdata.csv</t>
-  </si>
-  <si>
     <t>csv</t>
   </si>
   <si>
@@ -592,9 +592,6 @@
     <t>schema:ScholarlyArticle</t>
   </si>
   <si>
-    <t>data/papersOA.json</t>
-  </si>
-  <si>
     <t>JSONPath</t>
   </si>
   <si>
@@ -613,9 +610,6 @@
     <t>{uri}</t>
   </si>
   <si>
-    <t>data/chemicals.csv</t>
-  </si>
-  <si>
     <t>CO-CATALYST4</t>
   </si>
   <si>
@@ -746,6 +740,15 @@
   </si>
   <si>
     <t>https://w3id.org/solar/i/Article/{No_de_Ref}</t>
+  </si>
+  <si>
+    <t>../mappings/data/papersOA.json</t>
+  </si>
+  <si>
+    <t>../mappings/data/catalystsdata.csv</t>
+  </si>
+  <si>
+    <t>../mappings/data/chemicals.csv</t>
   </si>
 </sst>
 </file>
@@ -864,9 +867,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -904,7 +907,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1010,7 +1013,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1152,7 +1155,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1171,7 +1174,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -1243,7 +1246,7 @@
         <v>26</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -1251,7 +1254,7 @@
         <v>27</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -1259,55 +1262,55 @@
         <v>28</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>35</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="8" t="s">
         <v>47</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -1315,7 +1318,7 @@
         <v>23</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -1351,8 +1354,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C56"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1382,7 +1385,7 @@
         <v>30</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>178</v>
+        <v>227</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1393,7 +1396,7 @@
         <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1401,582 +1404,582 @@
         <v>29</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>178</v>
+        <v>227</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>178</v>
+        <v>227</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>32</v>
+        <v>228</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>31</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>32</v>
+        <v>228</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>31</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>32</v>
+        <v>228</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>31</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>32</v>
+        <v>228</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>31</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>32</v>
+        <v>228</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>31</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>32</v>
+        <v>228</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>31</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>32</v>
+        <v>228</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>31</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>32</v>
+        <v>228</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>31</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>32</v>
+        <v>228</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>31</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>32</v>
+        <v>228</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>31</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>32</v>
+        <v>228</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>31</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B33" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>32</v>
+        <v>228</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>31</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B35" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>32</v>
+        <v>228</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B36" s="7" t="s">
         <v>31</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B37" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>32</v>
+        <v>228</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B38" s="7" t="s">
         <v>31</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B39" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>32</v>
+        <v>228</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B40" s="7" t="s">
         <v>31</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B41" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>32</v>
+        <v>228</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B42" s="7" t="s">
         <v>31</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B43" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>32</v>
+        <v>228</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B44" s="7" t="s">
         <v>31</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B45" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>32</v>
+        <v>228</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B46" s="7" t="s">
         <v>31</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B47" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>32</v>
+        <v>228</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B48" s="7" t="s">
         <v>31</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B49" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>32</v>
+        <v>228</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B50" s="7" t="s">
         <v>31</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B51" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>32</v>
+        <v>228</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B52" s="7" t="s">
         <v>31</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B53" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>32</v>
+        <v>228</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B54" s="7" t="s">
         <v>31</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B55" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>185</v>
+        <v>229</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B56" s="7" t="s">
         <v>31</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -2018,282 +2021,282 @@
         <v>29</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" t="s">
         <v>42</v>
       </c>
-      <c r="B6" t="s">
-        <v>43</v>
-      </c>
       <c r="C6" s="8" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B17" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B21" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B23" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>139</v>
+      </c>
+      <c r="B24" t="s">
         <v>140</v>
       </c>
-      <c r="B24" t="s">
-        <v>141</v>
-      </c>
       <c r="C24" s="8" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B25" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B26" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>180</v>
+      </c>
+      <c r="C27" t="s">
         <v>182</v>
-      </c>
-      <c r="C27" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -2366,7 +2369,7 @@
         <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>14</v>
@@ -2383,10 +2386,10 @@
         <v>29</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="1"/>
@@ -2399,10 +2402,10 @@
         <v>29</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="1"/>
@@ -2415,10 +2418,10 @@
         <v>29</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="1"/>
@@ -2431,10 +2434,10 @@
         <v>29</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="1"/>
@@ -2447,13 +2450,13 @@
         <v>29</v>
       </c>
       <c r="B6" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="D6" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -2465,10 +2468,10 @@
         <v>29</v>
       </c>
       <c r="B7" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="1"/>
@@ -2481,10 +2484,10 @@
         <v>29</v>
       </c>
       <c r="B8" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="1"/>
@@ -2497,10 +2500,10 @@
         <v>29</v>
       </c>
       <c r="B9" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="1"/>
@@ -2513,13 +2516,13 @@
         <v>29</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -2531,31 +2534,31 @@
         <v>29</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="1"/>
@@ -2565,16 +2568,16 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -2583,13 +2586,13 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="1"/>
@@ -2599,27 +2602,27 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B16" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
@@ -2627,16 +2630,16 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B17" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="7" t="s">
-        <v>45</v>
-      </c>
       <c r="D17" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
@@ -2644,16 +2647,16 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B18" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="7" t="s">
-        <v>50</v>
-      </c>
       <c r="D18" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
@@ -2661,16 +2664,16 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
@@ -2678,13 +2681,13 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B20" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
@@ -2693,16 +2696,16 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
@@ -2710,16 +2713,16 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
@@ -2727,36 +2730,36 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H23" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
@@ -2764,16 +2767,16 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
@@ -2781,16 +2784,16 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
@@ -2798,16 +2801,16 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
@@ -2815,13 +2818,13 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
@@ -2830,16 +2833,16 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
@@ -2847,376 +2850,376 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="7" t="s">
-        <v>59</v>
-      </c>
       <c r="C30" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C31" s="8"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H31" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D32" s="7"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C35" s="8"/>
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
       <c r="F35" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H35" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D36" s="7"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C39" s="8"/>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
       <c r="F39" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H39" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C40" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="D40" s="7"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C43" s="8"/>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
       <c r="F43" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H43" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C44" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="D44" s="7"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C47" s="8"/>
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
       <c r="F47" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H47" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D48" s="7"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C49" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="B49" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>82</v>
-      </c>
       <c r="D49" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C51" s="8"/>
       <c r="D51" s="7"/>
       <c r="E51" s="7"/>
       <c r="F51" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H51" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C52" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="B52" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="D52" s="7"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B54" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C54" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="C54" s="7" t="s">
-        <v>138</v>
-      </c>
       <c r="D54" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F54" s="9"/>
       <c r="G54" s="7"/>
@@ -3224,635 +3227,635 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C55" s="8"/>
       <c r="D55" s="7"/>
       <c r="E55" s="7"/>
       <c r="F55" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H55" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C79" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="B79" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C79" s="7" t="s">
-        <v>145</v>
-      </c>
       <c r="D79" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D97" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D98" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>

--- a/mappings/solarchem-mapping.xlsx
+++ b/mappings/solarchem-mapping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aiglesias/GitHub/solarchem-kg/mappings/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C657B674-50B7-5145-A270-903FCB1BF420}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EA90877-1652-4A4E-9E0E-EE084B31820D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="680" windowWidth="28740" windowHeight="17500" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38400" yWindow="1040" windowWidth="35840" windowHeight="21100" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prefix" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="230">
   <si>
     <t>Prefix</t>
   </si>
@@ -610,9 +610,6 @@
     <t>{uri}</t>
   </si>
   <si>
-    <t>CO-CATALYST4</t>
-  </si>
-  <si>
     <t>$[*]</t>
   </si>
   <si>
@@ -643,15 +640,6 @@
     <t>https://w3id.org/solar/o/core#{Reaction_medium}Medium</t>
   </si>
   <si>
-    <t>https://w3id.org/solar/o/core#{Operation_mode}Mode</t>
-  </si>
-  <si>
-    <t>https://w3id.org/solar/o/core#{Light_source}LightSource</t>
-  </si>
-  <si>
-    <t>https://w3id.org/solar/o/core#{Lamp}Lamp</t>
-  </si>
-  <si>
     <t>https://w3id.org/solar/o/core#{Wavelength_nm}WL</t>
   </si>
   <si>
@@ -749,6 +737,18 @@
   </si>
   <si>
     <t>../mappings/data/chemicals.csv</t>
+  </si>
+  <si>
+    <t>{Light_source}</t>
+  </si>
+  <si>
+    <t>{Lamp}</t>
+  </si>
+  <si>
+    <t>{Operation_mode}</t>
+  </si>
+  <si>
+    <t>string</t>
   </si>
 </sst>
 </file>
@@ -827,7 +827,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -842,6 +842,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1246,7 +1247,7 @@
         <v>26</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -1254,7 +1255,7 @@
         <v>27</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -1262,7 +1263,7 @@
         <v>28</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -1270,7 +1271,7 @@
         <v>68</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -1318,7 +1319,7 @@
         <v>23</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -1354,7 +1355,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
@@ -1385,7 +1386,7 @@
         <v>30</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1407,7 +1408,7 @@
         <v>178</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1418,7 +1419,7 @@
         <v>30</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -1440,7 +1441,7 @@
         <v>178</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -1451,7 +1452,7 @@
         <v>30</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -1473,7 +1474,7 @@
         <v>178</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -1484,7 +1485,7 @@
         <v>30</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -1506,7 +1507,7 @@
         <v>30</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -1528,7 +1529,7 @@
         <v>30</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -1550,7 +1551,7 @@
         <v>30</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -1572,7 +1573,7 @@
         <v>30</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -1594,7 +1595,7 @@
         <v>30</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -1616,7 +1617,7 @@
         <v>30</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -1638,7 +1639,7 @@
         <v>30</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -1660,7 +1661,7 @@
         <v>30</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -1682,7 +1683,7 @@
         <v>30</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -1704,7 +1705,7 @@
         <v>30</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -1726,7 +1727,7 @@
         <v>30</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -1748,7 +1749,7 @@
         <v>30</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -1770,7 +1771,7 @@
         <v>30</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -1792,7 +1793,7 @@
         <v>30</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -1814,7 +1815,7 @@
         <v>30</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -1836,7 +1837,7 @@
         <v>30</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
@@ -1858,7 +1859,7 @@
         <v>30</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
@@ -1880,7 +1881,7 @@
         <v>30</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
@@ -1902,7 +1903,7 @@
         <v>30</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
@@ -1924,7 +1925,7 @@
         <v>30</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
@@ -1946,7 +1947,7 @@
         <v>30</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
@@ -1968,7 +1969,7 @@
         <v>30</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
@@ -1993,7 +1994,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2024,7 +2025,7 @@
         <v>176</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2035,7 +2036,7 @@
         <v>174</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -2046,7 +2047,7 @@
         <v>175</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -2057,7 +2058,7 @@
         <v>38</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.2">
@@ -2068,7 +2069,7 @@
         <v>42</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -2079,7 +2080,7 @@
         <v>88</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -2090,7 +2091,7 @@
         <v>89</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.2">
@@ -2101,7 +2102,7 @@
         <v>42</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -2112,7 +2113,7 @@
         <v>42</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -2123,7 +2124,7 @@
         <v>42</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -2134,7 +2135,7 @@
         <v>42</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -2145,7 +2146,7 @@
         <v>42</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -2156,7 +2157,7 @@
         <v>42</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -2167,7 +2168,7 @@
         <v>42</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -2178,7 +2179,7 @@
         <v>101</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -2186,10 +2187,10 @@
         <v>97</v>
       </c>
       <c r="B17" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -2200,7 +2201,7 @@
         <v>102</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -2211,7 +2212,7 @@
         <v>103</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -2222,7 +2223,7 @@
         <v>104</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -2233,7 +2234,7 @@
         <v>119</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -2244,7 +2245,7 @@
         <v>127</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -2255,7 +2256,7 @@
         <v>128</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -2266,7 +2267,7 @@
         <v>140</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -2277,7 +2278,7 @@
         <v>147</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -2288,7 +2289,7 @@
         <v>146</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -2340,8 +2341,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H99"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="C87" sqref="C87"/>
+    <sheetView tabSelected="1" topLeftCell="A77" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="D100" sqref="D100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2434,7 +2435,7 @@
         <v>29</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>156</v>
@@ -2519,7 +2520,7 @@
         <v>166</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D10" t="s">
         <v>45</v>
@@ -2574,7 +2575,7 @@
         <v>170</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>45</v>
@@ -2608,7 +2609,7 @@
         <v>173</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>45</v>
@@ -2702,7 +2703,7 @@
         <v>84</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>45</v>
@@ -2719,7 +2720,7 @@
         <v>85</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>45</v>
@@ -2984,7 +2985,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
-        <v>183</v>
+        <v>71</v>
       </c>
       <c r="B39" s="7" t="s">
         <v>179</v>
@@ -3253,7 +3254,7 @@
         <v>141</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D56" s="7" t="s">
         <v>45</v>
@@ -3267,7 +3268,7 @@
         <v>40</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D57" s="7" t="s">
         <v>45</v>
@@ -3281,7 +3282,7 @@
         <v>40</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D58" s="7" t="s">
         <v>45</v>
@@ -3295,7 +3296,7 @@
         <v>40</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D59" s="7" t="s">
         <v>45</v>
@@ -3309,7 +3310,7 @@
         <v>40</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D60" s="7" t="s">
         <v>45</v>
@@ -3323,7 +3324,7 @@
         <v>40</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D61" s="7" t="s">
         <v>45</v>
@@ -3337,7 +3338,7 @@
         <v>40</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D62" s="7" t="s">
         <v>45</v>
@@ -3351,7 +3352,7 @@
         <v>40</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D63" s="7" t="s">
         <v>45</v>
@@ -3365,7 +3366,7 @@
         <v>40</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D64" s="7" t="s">
         <v>45</v>
@@ -3379,7 +3380,7 @@
         <v>95</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D65" s="7" t="s">
         <v>45</v>
@@ -3393,7 +3394,7 @@
         <v>94</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D66" s="7" t="s">
         <v>45</v>
@@ -3407,7 +3408,7 @@
         <v>94</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D67" s="7" t="s">
         <v>45</v>
@@ -3421,7 +3422,7 @@
         <v>94</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D68" s="7" t="s">
         <v>45</v>
@@ -3435,7 +3436,7 @@
         <v>94</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D69" s="7" t="s">
         <v>45</v>
@@ -3449,7 +3450,7 @@
         <v>94</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D70" s="7" t="s">
         <v>45</v>
@@ -3463,7 +3464,7 @@
         <v>94</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D71" s="7" t="s">
         <v>45</v>
@@ -3476,8 +3477,8 @@
       <c r="B72" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="C72" s="8" t="s">
-        <v>194</v>
+      <c r="C72" s="12" t="s">
+        <v>228</v>
       </c>
       <c r="D72" s="7" t="s">
         <v>45</v>
@@ -3491,7 +3492,7 @@
         <v>94</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D73" s="7" t="s">
         <v>45</v>
@@ -3505,7 +3506,7 @@
         <v>94</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D74" s="7" t="s">
         <v>45</v>
@@ -3686,8 +3687,8 @@
       <c r="B87" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="C87" s="8" t="s">
-        <v>195</v>
+      <c r="C87" s="12" t="s">
+        <v>226</v>
       </c>
       <c r="D87" s="7" t="s">
         <v>45</v>
@@ -3700,8 +3701,8 @@
       <c r="B88" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="C88" s="8" t="s">
-        <v>196</v>
+      <c r="C88" s="12" t="s">
+        <v>227</v>
       </c>
       <c r="D88" s="7" t="s">
         <v>45</v>
@@ -3715,7 +3716,7 @@
         <v>121</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D89" s="7" t="s">
         <v>45</v>
@@ -3729,7 +3730,7 @@
         <v>124</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D90" s="7" t="s">
         <v>45</v>
@@ -3743,7 +3744,7 @@
         <v>123</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D91" s="7" t="s">
         <v>45</v>
@@ -3757,7 +3758,7 @@
         <v>122</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D92" s="7" t="s">
         <v>45</v>
@@ -3856,6 +3857,9 @@
       </c>
       <c r="C99" s="7" t="s">
         <v>181</v>
+      </c>
+      <c r="D99" s="7" t="s">
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -3876,26 +3880,23 @@
     <hyperlink ref="C69" r:id="rId13" display="http://w3id.org/solar/i/Condition/Temperature/{ID}" xr:uid="{B9A4BC97-C4E7-CB40-BDEE-3FC54B1A15F8}"/>
     <hyperlink ref="C70" r:id="rId14" display="http://w3id.org/solar/i/Condition/Time/{ID}" xr:uid="{1A254817-AA29-4349-9F3D-1F08E4B7BC6D}"/>
     <hyperlink ref="C71" r:id="rId15" location="{Reaction_medium}Medium" display="http://w3id.org/solar/o/core#{Reaction_medium}Medium" xr:uid="{9FFFB41F-40DA-E844-8105-33FA71783875}"/>
-    <hyperlink ref="C72" r:id="rId16" location="{Operation_mode}Mode" display="http://w3id.org/solar/o/core#{Operation_mode}Mode" xr:uid="{E49C1ABB-2410-D945-BAD5-E813751ECA22}"/>
-    <hyperlink ref="C87" r:id="rId17" location="{Light_source}LightSource" display="http://w3id.org/solar/o/core#{Light_source}LightSource" xr:uid="{5D5BAA03-A593-D246-AA1D-DD5A58EEB0FF}"/>
-    <hyperlink ref="C88" r:id="rId18" location="{Lamp}Lamp" display="http://w3id.org/solar/o/core#{Lamp}Lamp" xr:uid="{B474DE65-6CF2-6449-8CB9-C1A8F1227029}"/>
-    <hyperlink ref="C89" r:id="rId19" location="{Wavelength_nm}WL" display="http://w3id.org/solar/o/core#{Wavelength_nm}WL" xr:uid="{CDAAFAD0-E55A-C64F-A0E5-874107AAA07C}"/>
-    <hyperlink ref="C90" r:id="rId20" display="http://w3id.org/solar/i/IlluminatedArea/{ID}" xr:uid="{D635B011-750E-414E-91E7-5327241CF37A}"/>
-    <hyperlink ref="C91:C92" r:id="rId21" display="http://w3id.org/solar/i/IlluminatedArea/{ID}" xr:uid="{4DFEDC35-DAA6-804C-B0F6-2CAF9BC91727}"/>
-    <hyperlink ref="C91" r:id="rId22" display="http://w3id.org/solar/i/Power/{ID}" xr:uid="{1D48B95E-8BAD-E044-A7A5-74EFE823C221}"/>
-    <hyperlink ref="C92" r:id="rId23" display="http://w3id.org/solar/i/Irradiance/{ID}" xr:uid="{6118BC49-CEA9-7C4E-ABE8-63EA5ED604C9}"/>
-    <hyperlink ref="C63" r:id="rId24" display="http://w3id.org/solar/i/Input/Dye/{ID}-{Dyes}" xr:uid="{BD436ABE-9765-184F-AB49-2AAD056EA2AC}"/>
-    <hyperlink ref="C67" r:id="rId25" location="{Reactor_type}Reactor" display="http://w3id.org/solar/o/core#{Reactor_type}Reactor" xr:uid="{12796564-401A-904D-BA88-6DE0252945FE}"/>
-    <hyperlink ref="C74" r:id="rId26" display="http://w3id.org/solar/i/Condition/ReactorResidenceTime/{ID}" xr:uid="{4A57F8C9-3F6B-F346-9C06-14ACCD76C291}"/>
-    <hyperlink ref="C73" r:id="rId27" display="http://w3id.org/solar/i/Condition/ReactorVolume/{ID}" xr:uid="{D05AEF8F-000B-5243-AA02-25149BFE83E8}"/>
-    <hyperlink ref="C15" r:id="rId28" display="http://w3id.org/solar/i/Country/{institutions.country_code}" xr:uid="{2503A0AF-6306-B442-BAF4-FE5558F49054}"/>
-    <hyperlink ref="C13" r:id="rId29" display="http://w3id.org/solar/i/Affiliation/{institutions.id}" xr:uid="{43608D61-A942-0444-9531-A10AB9261A99}"/>
-    <hyperlink ref="C10" r:id="rId30" display="http://w3id.org/solar/i/Author/{authorships.author.orcid}" xr:uid="{4A64E9B0-01B7-7B4D-9DDC-33AFEBA4C9E6}"/>
-    <hyperlink ref="C56" r:id="rId31" display="http://w3id.org/solar/i/Article/{No_de_Ref}" xr:uid="{590C6980-47B5-A946-AD9A-4A310BA4F056}"/>
+    <hyperlink ref="C89" r:id="rId16" location="{Wavelength_nm}WL" display="http://w3id.org/solar/o/core#{Wavelength_nm}WL" xr:uid="{CDAAFAD0-E55A-C64F-A0E5-874107AAA07C}"/>
+    <hyperlink ref="C90" r:id="rId17" display="http://w3id.org/solar/i/IlluminatedArea/{ID}" xr:uid="{D635B011-750E-414E-91E7-5327241CF37A}"/>
+    <hyperlink ref="C91:C92" r:id="rId18" display="http://w3id.org/solar/i/IlluminatedArea/{ID}" xr:uid="{4DFEDC35-DAA6-804C-B0F6-2CAF9BC91727}"/>
+    <hyperlink ref="C91" r:id="rId19" display="http://w3id.org/solar/i/Power/{ID}" xr:uid="{1D48B95E-8BAD-E044-A7A5-74EFE823C221}"/>
+    <hyperlink ref="C92" r:id="rId20" display="http://w3id.org/solar/i/Irradiance/{ID}" xr:uid="{6118BC49-CEA9-7C4E-ABE8-63EA5ED604C9}"/>
+    <hyperlink ref="C63" r:id="rId21" display="http://w3id.org/solar/i/Input/Dye/{ID}-{Dyes}" xr:uid="{BD436ABE-9765-184F-AB49-2AAD056EA2AC}"/>
+    <hyperlink ref="C67" r:id="rId22" location="{Reactor_type}Reactor" display="http://w3id.org/solar/o/core#{Reactor_type}Reactor" xr:uid="{12796564-401A-904D-BA88-6DE0252945FE}"/>
+    <hyperlink ref="C74" r:id="rId23" display="http://w3id.org/solar/i/Condition/ReactorResidenceTime/{ID}" xr:uid="{4A57F8C9-3F6B-F346-9C06-14ACCD76C291}"/>
+    <hyperlink ref="C73" r:id="rId24" display="http://w3id.org/solar/i/Condition/ReactorVolume/{ID}" xr:uid="{D05AEF8F-000B-5243-AA02-25149BFE83E8}"/>
+    <hyperlink ref="C15" r:id="rId25" display="http://w3id.org/solar/i/Country/{institutions.country_code}" xr:uid="{2503A0AF-6306-B442-BAF4-FE5558F49054}"/>
+    <hyperlink ref="C13" r:id="rId26" display="http://w3id.org/solar/i/Affiliation/{institutions.id}" xr:uid="{43608D61-A942-0444-9531-A10AB9261A99}"/>
+    <hyperlink ref="C10" r:id="rId27" display="http://w3id.org/solar/i/Author/{authorships.author.orcid}" xr:uid="{4A64E9B0-01B7-7B4D-9DDC-33AFEBA4C9E6}"/>
+    <hyperlink ref="C56" r:id="rId28" display="http://w3id.org/solar/i/Article/{No_de_Ref}" xr:uid="{590C6980-47B5-A946-AD9A-4A310BA4F056}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <legacyDrawing r:id="rId32"/>
+  <legacyDrawing r:id="rId29"/>
 </worksheet>
 </file>
 

--- a/mappings/solarchem-mapping.xlsx
+++ b/mappings/solarchem-mapping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aiglesias/GitHub/solarchem-kg/mappings/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EA90877-1652-4A4E-9E0E-EE084B31820D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AE61834-E02B-7C4C-80DE-C353BCBF1352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="1040" windowWidth="35840" windowHeight="21100" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38400" yWindow="1040" windowWidth="35840" windowHeight="21100" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prefix" sheetId="1" r:id="rId1"/>
@@ -730,15 +730,6 @@
     <t>https://w3id.org/solar/i/Article/{No_de_Ref}</t>
   </si>
   <si>
-    <t>../mappings/data/papersOA.json</t>
-  </si>
-  <si>
-    <t>../mappings/data/catalystsdata.csv</t>
-  </si>
-  <si>
-    <t>../mappings/data/chemicals.csv</t>
-  </si>
-  <si>
     <t>{Light_source}</t>
   </si>
   <si>
@@ -749,6 +740,15 @@
   </si>
   <si>
     <t>string</t>
+  </si>
+  <si>
+    <t>../data/processed/papersOA.json</t>
+  </si>
+  <si>
+    <t>../data/processed/catalystsdata.csv</t>
+  </si>
+  <si>
+    <t>../data/processed/chemicals.csv</t>
   </si>
 </sst>
 </file>
@@ -827,7 +827,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -842,7 +842,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1355,8 +1354,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C56"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1386,7 +1385,7 @@
         <v>30</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1419,7 +1418,7 @@
         <v>30</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -1452,7 +1451,7 @@
         <v>30</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -1485,7 +1484,7 @@
         <v>30</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -1507,7 +1506,7 @@
         <v>30</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -1529,7 +1528,7 @@
         <v>30</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -1551,7 +1550,7 @@
         <v>30</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -1573,7 +1572,7 @@
         <v>30</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -1595,7 +1594,7 @@
         <v>30</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -1617,7 +1616,7 @@
         <v>30</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -1639,7 +1638,7 @@
         <v>30</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -1661,7 +1660,7 @@
         <v>30</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -1683,7 +1682,7 @@
         <v>30</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -1705,7 +1704,7 @@
         <v>30</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -1727,7 +1726,7 @@
         <v>30</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -1749,7 +1748,7 @@
         <v>30</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -1771,7 +1770,7 @@
         <v>30</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -1793,7 +1792,7 @@
         <v>30</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -1815,7 +1814,7 @@
         <v>30</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -1837,7 +1836,7 @@
         <v>30</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
@@ -1859,7 +1858,7 @@
         <v>30</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
@@ -1881,7 +1880,7 @@
         <v>30</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
@@ -1903,7 +1902,7 @@
         <v>30</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
@@ -1925,7 +1924,7 @@
         <v>30</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
@@ -1947,7 +1946,7 @@
         <v>30</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
@@ -1969,7 +1968,7 @@
         <v>30</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
@@ -2341,7 +2340,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
       <selection activeCell="D100" sqref="D100"/>
     </sheetView>
   </sheetViews>
@@ -3477,8 +3476,8 @@
       <c r="B72" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="C72" s="12" t="s">
-        <v>228</v>
+      <c r="C72" t="s">
+        <v>225</v>
       </c>
       <c r="D72" s="7" t="s">
         <v>45</v>
@@ -3687,8 +3686,8 @@
       <c r="B87" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="C87" s="12" t="s">
-        <v>226</v>
+      <c r="C87" t="s">
+        <v>223</v>
       </c>
       <c r="D87" s="7" t="s">
         <v>45</v>
@@ -3701,8 +3700,8 @@
       <c r="B88" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="C88" s="12" t="s">
-        <v>227</v>
+      <c r="C88" t="s">
+        <v>224</v>
       </c>
       <c r="D88" s="7" t="s">
         <v>45</v>
@@ -3859,7 +3858,7 @@
         <v>181</v>
       </c>
       <c r="D99" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>

--- a/mappings/solarchem-mapping.xlsx
+++ b/mappings/solarchem-mapping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aiglesias/GitHub/solarchem-kg/mappings/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91969DC2-C4D7-034F-BE22-1E2157336144}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10BA46A8-8D10-A445-B540-1B267243A0C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="1040" windowWidth="24940" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38400" yWindow="1040" windowWidth="24940" windowHeight="21100" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prefix" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="245">
   <si>
     <t>Prefix</t>
   </si>
@@ -222,9 +222,6 @@
     <t>solarpc:Support</t>
   </si>
   <si>
-    <t>{support_percent}</t>
-  </si>
-  <si>
     <t>unit:GM</t>
   </si>
   <si>
@@ -237,9 +234,6 @@
     <t>solar:Co-catalyst</t>
   </si>
   <si>
-    <t>{percent}</t>
-  </si>
-  <si>
     <t>solarpc</t>
   </si>
   <si>
@@ -252,18 +246,12 @@
     <t>CO-CATALYST3</t>
   </si>
   <si>
-    <t>{percent_cc_2}</t>
-  </si>
-  <si>
     <t>{co_catalyst_2}</t>
   </si>
   <si>
     <t>{co_catalyst_3}</t>
   </si>
   <si>
-    <t>{percent_cc_3}</t>
-  </si>
-  <si>
     <t>DOPANT</t>
   </si>
   <si>
@@ -273,18 +261,12 @@
     <t>solar:Dopant</t>
   </si>
   <si>
-    <t>{dopant_percent}</t>
-  </si>
-  <si>
     <t>DYE</t>
   </si>
   <si>
     <t>solarpc:Dye</t>
   </si>
   <si>
-    <t>{dye_percent}</t>
-  </si>
-  <si>
     <t>{Dyes}</t>
   </si>
   <si>
@@ -774,118 +756,7 @@
     <t>https://w3id.org/solar/i/Observation/{Catalyst}-crystalphase/{ID}</t>
   </si>
   <si>
-    <t>PERC_CO-CATALYST_OBS</t>
-  </si>
-  <si>
-    <t>Observation of percentage of co-catalyst {Co_catalyst} for experiment execution {ID}</t>
-  </si>
-  <si>
-    <t>solar:Percentage</t>
-  </si>
-  <si>
-    <t>PERC_CO-CATALYST_RES</t>
-  </si>
-  <si>
-    <t>Result of percentage of co-catalyst {Co_catalyst} for experiment execution {ID}</t>
-  </si>
-  <si>
     <t>unit:PERCENT</t>
-  </si>
-  <si>
-    <t>https://w3id.org/solar/i/Result/{co_catalyst_2}-cocatalyst/{ID}</t>
-  </si>
-  <si>
-    <t>https://w3id.org/solar/i/Result/{Co_catalyst}-cocatalyst/{ID}</t>
-  </si>
-  <si>
-    <t>PERC_CO-CATALYST2_OBS</t>
-  </si>
-  <si>
-    <t>PERC_CO-CATALYST2_RES</t>
-  </si>
-  <si>
-    <t>Observation of percentage of co-catalyst {co_catalyst_2} for experiment execution {ID}</t>
-  </si>
-  <si>
-    <t>Result of percentage of co-catalyst {co_catalyst_2} for experiment execution {ID}</t>
-  </si>
-  <si>
-    <t>PERC_CO-CATALYST3_OBS</t>
-  </si>
-  <si>
-    <t>Observation of percentage of co-catalyst {co_catalyst_3} for experiment execution {ID}</t>
-  </si>
-  <si>
-    <t>https://w3id.org/solar/i/Result/{co_catalyst_3}-cocatalyst/{ID}</t>
-  </si>
-  <si>
-    <t>PERC_CO-CATALYST3_RES</t>
-  </si>
-  <si>
-    <t>Result of percentage of co-catalyst {co_catalyst_3} for experiment execution {ID}</t>
-  </si>
-  <si>
-    <t>https://w3id.org/solar/i/Observation/{Co_catalyst}-cocatalyst/{ID}</t>
-  </si>
-  <si>
-    <t>https://w3id.org/solar/i/Observation/{co_catalyst_3}-cocatalyst/{ID}</t>
-  </si>
-  <si>
-    <t>https://w3id.org/solar/i/Observation/{co_catalyst_2}-cocatalyst/{ID}</t>
-  </si>
-  <si>
-    <t>PERC_SUPPORT_OBS</t>
-  </si>
-  <si>
-    <t>Observation of percentage of support {Support} for experiment execution {ID}</t>
-  </si>
-  <si>
-    <t>PERC_SUPPORT_RES</t>
-  </si>
-  <si>
-    <t>Result of percentage of support {Support} for experiment execution {ID}</t>
-  </si>
-  <si>
-    <t>https://w3id.org/solar/i/Result/{Support}-support/{ID}</t>
-  </si>
-  <si>
-    <t>https://w3id.org/solar/i/Observation/{Support}-support/{ID}</t>
-  </si>
-  <si>
-    <t>PERC_DOPANT_OBS</t>
-  </si>
-  <si>
-    <t>Observation of percentage of dopant {Dopant} for experiment execution {ID}</t>
-  </si>
-  <si>
-    <t>https://w3id.org/solar/i/Result/{Dopant}-dopant/{ID}</t>
-  </si>
-  <si>
-    <t>PERC_DOPANT_RES</t>
-  </si>
-  <si>
-    <t>Result of percentage of dopant {Dopant} for experiment execution {ID}</t>
-  </si>
-  <si>
-    <t>https://w3id.org/solar/i/Observation/{Dopant}-dopant/{ID}</t>
-  </si>
-  <si>
-    <t>PERC_DYE_OBS</t>
-  </si>
-  <si>
-    <t>Observation of percentage of dye {Dyes} for experiment execution {ID}</t>
-  </si>
-  <si>
-    <t>https://w3id.org/solar/i/Result/{Dyes}-dye/{ID}</t>
-  </si>
-  <si>
-    <t>PERC_DYE_RES</t>
-  </si>
-  <si>
-    <t>Result of percentage of dye {Dyes} for experiment execution {ID}</t>
-  </si>
-  <si>
-    <t>https://w3id.org/solar/i/Observation/{Dyes}-dye/{ID}</t>
   </si>
   <si>
     <t>PERC_REDUCTANT_OBS</t>
@@ -1000,7 +871,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1014,11 +885,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1035,10 +907,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1340,7 +1208,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
@@ -1412,7 +1280,7 @@
         <v>26</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -1420,7 +1288,7 @@
         <v>27</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -1428,15 +1296,15 @@
         <v>28</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -1460,7 +1328,7 @@
         <v>51</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -1468,23 +1336,23 @@
         <v>52</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>286</v>
+        <v>243</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>287</v>
+        <v>244</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -1492,7 +1360,7 @@
         <v>23</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -1524,10 +1392,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C88"/>
+  <dimension ref="A1:C86"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C91" sqref="C91"/>
+    <sheetView topLeftCell="A26" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A63" sqref="A63:C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1557,7 +1425,7 @@
         <v>30</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1568,7 +1436,7 @@
         <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1576,76 +1444,76 @@
         <v>29</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>30</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B7" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>169</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>30</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B10" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="C10" s="10" t="s">
         <v>169</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -1656,7 +1524,7 @@
         <v>30</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -1678,7 +1546,7 @@
         <v>30</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -1700,7 +1568,7 @@
         <v>30</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -1716,18 +1584,18 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>30</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>31</v>
@@ -1738,18 +1606,18 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>30</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>31</v>
@@ -1766,7 +1634,7 @@
         <v>30</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -1782,18 +1650,18 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>30</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>31</v>
@@ -1804,18 +1672,18 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>30</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>31</v>
@@ -1826,18 +1694,18 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>30</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>31</v>
@@ -1848,18 +1716,18 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>30</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>31</v>
@@ -1870,18 +1738,18 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>30</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>31</v>
@@ -1892,18 +1760,18 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>30</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>31</v>
@@ -1914,18 +1782,18 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>30</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>31</v>
@@ -1936,18 +1804,18 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>30</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>31</v>
@@ -1958,18 +1826,18 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B39" s="6" t="s">
         <v>30</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B40" s="6" t="s">
         <v>31</v>
@@ -1980,18 +1848,18 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B41" s="6" t="s">
         <v>30</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B42" s="6" t="s">
         <v>31</v>
@@ -2002,18 +1870,18 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B43" s="6" t="s">
         <v>30</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B44" s="6" t="s">
         <v>31</v>
@@ -2024,18 +1892,18 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B45" s="6" t="s">
         <v>30</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B46" s="6" t="s">
         <v>31</v>
@@ -2046,18 +1914,18 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B47" s="6" t="s">
         <v>30</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B48" s="6" t="s">
         <v>31</v>
@@ -2068,18 +1936,18 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B49" s="6" t="s">
         <v>30</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B50" s="6" t="s">
         <v>31</v>
@@ -2090,18 +1958,18 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B51" s="6" t="s">
         <v>30</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B52" s="6" t="s">
         <v>31</v>
@@ -2112,18 +1980,18 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="B53" s="6" t="s">
         <v>30</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="B54" s="6" t="s">
         <v>31</v>
@@ -2134,18 +2002,18 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B55" s="6" t="s">
         <v>30</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B56" s="6" t="s">
         <v>31</v>
@@ -2156,18 +2024,18 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B57" s="6" t="s">
         <v>30</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B58" s="6" t="s">
         <v>31</v>
@@ -2178,18 +2046,18 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="B59" s="6" t="s">
         <v>30</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="B60" s="6" t="s">
         <v>31</v>
@@ -2200,18 +2068,18 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="B61" s="6" t="s">
         <v>30</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="B62" s="6" t="s">
         <v>31</v>
@@ -2222,18 +2090,18 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B63" s="6" t="s">
         <v>30</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B64" s="6" t="s">
         <v>31</v>
@@ -2242,269 +2110,93 @@
         <v>32</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>247</v>
-      </c>
-      <c r="B65" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C65" s="6" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>247</v>
-      </c>
-      <c r="B66" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C66" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>252</v>
-      </c>
-      <c r="B67" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C67" s="6" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>252</v>
-      </c>
-      <c r="B68" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C68" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>253</v>
-      </c>
-      <c r="B69" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C69" s="6" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>253</v>
-      </c>
-      <c r="B70" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C70" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>256</v>
-      </c>
-      <c r="B71" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C71" s="6" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>256</v>
-      </c>
-      <c r="B72" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C72" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>259</v>
-      </c>
-      <c r="B73" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C73" s="6" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>259</v>
-      </c>
-      <c r="B74" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C74" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>264</v>
-      </c>
-      <c r="B75" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C75" s="6" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>264</v>
-      </c>
-      <c r="B76" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C76" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>266</v>
-      </c>
-      <c r="B77" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C77" s="6" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>266</v>
-      </c>
-      <c r="B78" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C78" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>270</v>
-      </c>
-      <c r="B79" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C79" s="6" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>270</v>
-      </c>
-      <c r="B80" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C80" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>273</v>
-      </c>
-      <c r="B81" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C81" s="6" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>273</v>
-      </c>
-      <c r="B82" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C82" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>276</v>
-      </c>
-      <c r="B83" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C83" s="6" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>276</v>
-      </c>
-      <c r="B84" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C84" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>279</v>
-      </c>
-      <c r="B85" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C85" s="6" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>279</v>
-      </c>
-      <c r="B86" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C86" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>282</v>
-      </c>
-      <c r="B87" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C87" s="6" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
-        <v>282</v>
-      </c>
-      <c r="B88" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C88" s="6" t="s">
-        <v>32</v>
-      </c>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B65" s="6"/>
+      <c r="C65" s="6"/>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B66" s="6"/>
+      <c r="C66" s="6"/>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B67" s="6"/>
+      <c r="C67" s="6"/>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B68" s="6"/>
+      <c r="C68" s="6"/>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B69" s="6"/>
+      <c r="C69" s="6"/>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B70" s="6"/>
+      <c r="C70" s="6"/>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B71" s="6"/>
+      <c r="C71" s="6"/>
+    </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B72" s="6"/>
+      <c r="C72" s="6"/>
+    </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B73" s="6"/>
+      <c r="C73" s="6"/>
+    </row>
+    <row r="74" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B74" s="6"/>
+      <c r="C74" s="6"/>
+    </row>
+    <row r="75" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B75" s="6"/>
+      <c r="C75" s="6"/>
+    </row>
+    <row r="76" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B76" s="6"/>
+      <c r="C76" s="6"/>
+    </row>
+    <row r="77" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B77" s="6"/>
+      <c r="C77" s="6"/>
+    </row>
+    <row r="78" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B78" s="6"/>
+      <c r="C78" s="6"/>
+    </row>
+    <row r="79" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B79" s="6"/>
+      <c r="C79" s="6"/>
+    </row>
+    <row r="80" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B80" s="6"/>
+      <c r="C80" s="6"/>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B81" s="6"/>
+      <c r="C81" s="6"/>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B82" s="6"/>
+      <c r="C82" s="6"/>
+    </row>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B83" s="6"/>
+      <c r="C83" s="6"/>
+    </row>
+    <row r="84" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B84" s="6"/>
+      <c r="C84" s="6"/>
+    </row>
+    <row r="85" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B85" s="6"/>
+      <c r="C85" s="6"/>
+    </row>
+    <row r="86" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B86" s="6"/>
+      <c r="C86" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -2514,10 +2206,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD8"/>
+    <sheetView topLeftCell="A4" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2545,32 +2237,32 @@
         <v>29</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>186</v>
+        <v>161</v>
+      </c>
+      <c r="C2" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>187</v>
+      <c r="C3" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>188</v>
+        <v>160</v>
+      </c>
+      <c r="C4" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -2580,8 +2272,8 @@
       <c r="B5" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>189</v>
+      <c r="C5" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.2">
@@ -2591,8 +2283,8 @@
       <c r="B6" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>190</v>
+      <c r="C6" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.2">
@@ -2602,30 +2294,30 @@
       <c r="B7" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="13" t="s">
-        <v>191</v>
+      <c r="C7" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B8" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="13" t="s">
-        <v>192</v>
+      <c r="C8" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B9" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="13" t="s">
-        <v>193</v>
+      <c r="C9" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -2635,369 +2327,255 @@
       <c r="B10" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="13" t="s">
-        <v>194</v>
+      <c r="C10" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B11" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="13" t="s">
-        <v>195</v>
+      <c r="C11" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B12" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="13" t="s">
-        <v>196</v>
+      <c r="C12" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B13" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="13" t="s">
-        <v>197</v>
+      <c r="C13" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B14" t="s">
-        <v>93</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>198</v>
+        <v>87</v>
+      </c>
+      <c r="C14" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B15" t="s">
-        <v>177</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>199</v>
+        <v>171</v>
+      </c>
+      <c r="C15" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B16" t="s">
-        <v>94</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>200</v>
+        <v>88</v>
+      </c>
+      <c r="C16" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B17" t="s">
-        <v>95</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>201</v>
+        <v>89</v>
+      </c>
+      <c r="C17" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B18" t="s">
-        <v>96</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>202</v>
+        <v>90</v>
+      </c>
+      <c r="C18" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B19" t="s">
-        <v>111</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>203</v>
+        <v>105</v>
+      </c>
+      <c r="C19" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B20" t="s">
-        <v>119</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>204</v>
+        <v>113</v>
+      </c>
+      <c r="C20" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B21" t="s">
-        <v>120</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>205</v>
+        <v>114</v>
+      </c>
+      <c r="C21" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B22" t="s">
-        <v>131</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>206</v>
+        <v>125</v>
+      </c>
+      <c r="C22" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B23" t="s">
-        <v>138</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>207</v>
+        <v>132</v>
+      </c>
+      <c r="C23" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B24" t="s">
-        <v>137</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>208</v>
+        <v>131</v>
+      </c>
+      <c r="C24" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C25" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="B26" t="s">
-        <v>221</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>224</v>
+        <v>215</v>
+      </c>
+      <c r="C26" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>220</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>222</v>
+        <v>214</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>216</v>
       </c>
       <c r="C27" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="14" t="s">
+      <c r="A28" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="B28" t="s">
+        <v>215</v>
+      </c>
+      <c r="C28" t="s">
         <v>232</v>
       </c>
-      <c r="B28" t="s">
-        <v>221</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>238</v>
-      </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="14" t="s">
-        <v>236</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>222</v>
+      <c r="A29" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>216</v>
       </c>
       <c r="C29" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="B30" t="s">
-        <v>221</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>243</v>
+        <v>215</v>
+      </c>
+      <c r="C30" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B31" t="s">
-        <v>221</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>261</v>
+        <v>215</v>
+      </c>
+      <c r="C31" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>247</v>
-      </c>
-      <c r="B32" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>252</v>
-      </c>
-      <c r="B33" t="s">
-        <v>221</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>253</v>
-      </c>
-      <c r="B34" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="C34" s="13" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>256</v>
-      </c>
-      <c r="B35" t="s">
-        <v>221</v>
-      </c>
-      <c r="C35" s="13" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>259</v>
-      </c>
-      <c r="B36" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="C36" s="13" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>264</v>
-      </c>
-      <c r="B37" t="s">
-        <v>221</v>
-      </c>
-      <c r="C37" s="13" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>266</v>
-      </c>
-      <c r="B38" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="C38" s="13" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>270</v>
-      </c>
-      <c r="B39" t="s">
-        <v>221</v>
-      </c>
-      <c r="C39" s="13" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>273</v>
-      </c>
-      <c r="B40" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="C40" s="13" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>276</v>
-      </c>
-      <c r="B41" t="s">
-        <v>221</v>
-      </c>
-      <c r="C41" s="13" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>279</v>
-      </c>
-      <c r="B42" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="C42" s="13" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>282</v>
-      </c>
-      <c r="B43" t="s">
-        <v>221</v>
-      </c>
-      <c r="C43" s="13" t="s">
-        <v>285</v>
-      </c>
+      <c r="B32" s="11"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B34" s="11"/>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B36" s="11"/>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B38" s="11"/>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B40" s="11"/>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B42" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -3008,10 +2586,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:H162"/>
+  <dimension ref="A1:H174"/>
   <sheetViews>
-    <sheetView topLeftCell="A123" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="C158" sqref="C158"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3056,10 +2634,10 @@
         <v>29</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="1"/>
@@ -3072,10 +2650,10 @@
         <v>29</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="1"/>
@@ -3088,10 +2666,10 @@
         <v>29</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="1"/>
@@ -3104,10 +2682,10 @@
         <v>29</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="1"/>
@@ -3120,13 +2698,13 @@
         <v>29</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -3138,10 +2716,10 @@
         <v>29</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="1"/>
@@ -3154,10 +2732,10 @@
         <v>29</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="1"/>
@@ -3170,10 +2748,10 @@
         <v>29</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="1"/>
@@ -3186,10 +2764,10 @@
         <v>29</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D10" t="s">
         <v>45</v>
@@ -3214,7 +2792,7 @@
         <v>33</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="H11" s="6" t="s">
         <v>39</v>
@@ -3222,13 +2800,13 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="1"/>
@@ -3238,13 +2816,13 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>45</v>
@@ -3256,13 +2834,13 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="1"/>
@@ -3272,13 +2850,13 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>45</v>
@@ -3326,7 +2904,7 @@
         <v>49</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
@@ -3340,7 +2918,7 @@
         <v>50</v>
       </c>
       <c r="C19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>45</v>
@@ -3353,20 +2931,20 @@
       <c r="A20" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="11" t="s">
-        <v>170</v>
+      <c r="B20" s="6" t="s">
+        <v>164</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="G20" s="6" t="s">
         <v>54</v>
       </c>
       <c r="H20" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -3377,7 +2955,7 @@
         <v>53</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
@@ -3392,7 +2970,7 @@
         <v>43</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>45</v>
@@ -3406,614 +2984,650 @@
         <v>56</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H23" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="D24" s="6"/>
+        <v>56</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>45</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="B26" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="C26" s="7"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="H26" t="s">
-        <v>172</v>
-      </c>
+      <c r="D26" s="14"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="D27" s="6"/>
+        <v>66</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>45</v>
+        <v>66</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="C28" s="16"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="H28" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="C29" s="7"/>
-      <c r="D29" s="6"/>
+        <v>66</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>65</v>
+      </c>
       <c r="E29" s="6"/>
-      <c r="F29" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="H29" t="s">
-        <v>172</v>
-      </c>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D30" s="6"/>
+        <v>66</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>45</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D31" s="14"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="C32" s="7"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="H32" t="s">
-        <v>172</v>
+        <v>67</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="D33" s="6"/>
+        <v>67</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="C33" s="16"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="H33" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>45</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="C35" s="7"/>
-      <c r="D35" s="6"/>
+        <v>67</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="D35" s="14" t="s">
+        <v>45</v>
+      </c>
       <c r="E35" s="6"/>
-      <c r="F35" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="H35" t="s">
-        <v>172</v>
-      </c>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="B36" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B36" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="C36" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="D36" s="6"/>
+      <c r="C36" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D36" s="14"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="B37" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B37" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="C37" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D37" s="6" t="s">
+      <c r="C37" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D37" s="14" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="C38" s="7"/>
-      <c r="D38" s="6"/>
+        <v>57</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="C38" s="16"/>
+      <c r="D38" s="14"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="H38" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="D39" s="6"/>
+        <v>57</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D39" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>45</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="D40" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="C41" s="7"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="G41" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="H41" t="s">
-        <v>172</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="D41" s="14"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="D42" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B42" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="D42" s="14" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>45</v>
+        <v>70</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="C43" s="16"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="H43" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>45</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="B44" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C44" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="D44" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>45</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="D45" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>45</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="D46" s="14"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="D47" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B47" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C47" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="D47" s="14" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+      <c r="B48" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="C48" s="16"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H48" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+      <c r="B49" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C49" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="D49" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+      <c r="B50" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="D50" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
-        <v>33</v>
+        <v>119</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D51" s="6"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
-        <v>33</v>
+        <v>119</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>198</v>
+        <v>43</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>121</v>
       </c>
       <c r="D52" s="6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
-        <v>33</v>
+        <v>119</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C53" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+        <v>164</v>
+      </c>
+      <c r="C53" s="7"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="G53" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="H53" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
         <v>33</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>86</v>
+        <v>126</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="D54" s="6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
         <v>33</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>86</v>
+        <v>40</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="D55" s="6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
         <v>33</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>86</v>
+        <v>40</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="D56" s="6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
         <v>33</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>86</v>
+        <v>40</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D57" s="6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
         <v>33</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C58" t="s">
-        <v>214</v>
+        <v>40</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>187</v>
       </c>
       <c r="D58" s="6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="s">
         <v>33</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>86</v>
+        <v>40</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="D59" s="6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="6" t="s">
         <v>33</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>86</v>
+        <v>40</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="D60" s="6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="6" t="s">
-        <v>88</v>
+        <v>33</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>97</v>
+        <v>40</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>190</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="6" t="s">
-        <v>88</v>
+        <v>33</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>106</v>
+        <v>40</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>191</v>
       </c>
       <c r="D62" s="6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="6" t="s">
-        <v>133</v>
+        <v>33</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C63" s="6" t="s">
-        <v>98</v>
+        <v>81</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>197</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="6" t="s">
-        <v>133</v>
+        <v>33</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C64" s="6" t="s">
-        <v>105</v>
+        <v>80</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>192</v>
       </c>
       <c r="D64" s="6" t="s">
         <v>45</v>
@@ -4021,27 +3635,27 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="6" t="s">
-        <v>134</v>
+        <v>33</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C65" s="6" t="s">
-        <v>135</v>
+        <v>80</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>176</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="6" t="s">
-        <v>134</v>
+        <v>33</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C66" s="6" t="s">
-        <v>136</v>
+        <v>80</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>194</v>
       </c>
       <c r="D66" s="6" t="s">
         <v>45</v>
@@ -4049,27 +3663,27 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
-        <v>90</v>
+        <v>33</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C67" s="6" t="s">
-        <v>99</v>
+        <v>80</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>195</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="6" t="s">
-        <v>90</v>
+        <v>33</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C68" s="6" t="s">
-        <v>103</v>
+        <v>80</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>196</v>
       </c>
       <c r="D68" s="6" t="s">
         <v>45</v>
@@ -4077,27 +3691,27 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="6" t="s">
-        <v>91</v>
+        <v>33</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C69" s="6" t="s">
-        <v>100</v>
+        <v>80</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>177</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
-        <v>91</v>
+        <v>33</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C70" s="6" t="s">
-        <v>104</v>
+        <v>80</v>
+      </c>
+      <c r="C70" t="s">
+        <v>208</v>
       </c>
       <c r="D70" s="6" t="s">
         <v>45</v>
@@ -4105,27 +3719,27 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="6" t="s">
-        <v>92</v>
+        <v>33</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C71" s="6" t="s">
-        <v>101</v>
+        <v>80</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>201</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="6" t="s">
-        <v>92</v>
+        <v>33</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C72" s="6" t="s">
-        <v>102</v>
+        <v>80</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>202</v>
       </c>
       <c r="D72" s="6" t="s">
         <v>45</v>
@@ -4133,27 +3747,27 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="6" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="C73" t="s">
-        <v>212</v>
+        <v>48</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>91</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="C74" t="s">
-        <v>213</v>
+        <v>50</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>100</v>
       </c>
       <c r="D74" s="6" t="s">
         <v>45</v>
@@ -4161,27 +3775,27 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="C75" s="7" t="s">
-        <v>184</v>
+        <v>48</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>92</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="6" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="C76" s="7" t="s">
-        <v>206</v>
+        <v>50</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>99</v>
       </c>
       <c r="D76" s="6" t="s">
         <v>45</v>
@@ -4189,27 +3803,27 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="6" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="C77" s="7" t="s">
-        <v>204</v>
+        <v>48</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>129</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="6" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="C78" s="7" t="s">
-        <v>205</v>
+        <v>50</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>130</v>
       </c>
       <c r="D78" s="6" t="s">
         <v>45</v>
@@ -4217,27 +3831,27 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="6" t="s">
-        <v>117</v>
+        <v>84</v>
       </c>
       <c r="B79" s="6" t="s">
         <v>48</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>121</v>
+        <v>93</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="6" t="s">
-        <v>117</v>
+        <v>84</v>
       </c>
       <c r="B80" s="6" t="s">
         <v>50</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="D80" s="6" t="s">
         <v>45</v>
@@ -4245,27 +3859,27 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="6" t="s">
-        <v>118</v>
+        <v>85</v>
       </c>
       <c r="B81" s="6" t="s">
         <v>48</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>122</v>
+        <v>94</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="6" t="s">
-        <v>118</v>
+        <v>85</v>
       </c>
       <c r="B82" s="6" t="s">
         <v>50</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
       <c r="D82" s="6" t="s">
         <v>45</v>
@@ -4273,27 +3887,27 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="6" t="s">
-        <v>130</v>
+        <v>86</v>
       </c>
       <c r="B83" s="6" t="s">
         <v>48</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="6" t="s">
-        <v>130</v>
+        <v>86</v>
       </c>
       <c r="B84" s="6" t="s">
         <v>50</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>140</v>
+        <v>96</v>
       </c>
       <c r="D84" s="6" t="s">
         <v>45</v>
@@ -4301,225 +3915,234 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="6" t="s">
-        <v>171</v>
+        <v>102</v>
       </c>
       <c r="B85" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C85" t="s">
+        <v>206</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C86" t="s">
+        <v>207</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D96" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="B97" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C85" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="D85" s="6" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>219</v>
-      </c>
-      <c r="B86" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C86" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>219</v>
-      </c>
-      <c r="B87" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="C87" t="s">
-        <v>227</v>
-      </c>
-      <c r="D87" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
-        <v>219</v>
-      </c>
-      <c r="B88" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="C88" t="s">
-        <v>223</v>
-      </c>
-      <c r="D88" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
-        <v>219</v>
-      </c>
-      <c r="B89" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="C89" t="s">
-        <v>190</v>
-      </c>
-      <c r="D89" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
-        <v>219</v>
-      </c>
-      <c r="B90" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="C90" t="s">
-        <v>189</v>
-      </c>
-      <c r="D90" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
-        <v>220</v>
-      </c>
-      <c r="B91" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C91" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>220</v>
-      </c>
-      <c r="B92" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C92" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="D92" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
-        <v>220</v>
-      </c>
-      <c r="B93" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C93" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D93" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
-        <v>232</v>
-      </c>
-      <c r="B94" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C94" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
-        <v>232</v>
-      </c>
-      <c r="B95" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="C95" t="s">
-        <v>234</v>
-      </c>
-      <c r="D95" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
-        <v>232</v>
-      </c>
-      <c r="B96" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="C96" t="s">
-        <v>235</v>
-      </c>
-      <c r="D96" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
-        <v>232</v>
-      </c>
-      <c r="B97" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="C97" t="s">
-        <v>190</v>
-      </c>
-      <c r="D97" t="s">
-        <v>45</v>
+      <c r="C97" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>230</v>
+        <v>53</v>
       </c>
       <c r="C98" t="s">
-        <v>189</v>
-      </c>
-      <c r="D98" t="s">
-        <v>45</v>
+        <v>219</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>236</v>
+        <v>213</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>53</v>
+        <v>220</v>
       </c>
       <c r="C99" t="s">
-        <v>237</v>
+        <v>221</v>
+      </c>
+      <c r="D99" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>236</v>
+        <v>213</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C100" s="6" t="s">
-        <v>82</v>
+        <v>222</v>
+      </c>
+      <c r="C100" t="s">
+        <v>217</v>
       </c>
       <c r="D100" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>236</v>
+        <v>213</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C101" s="6" t="s">
-        <v>85</v>
+        <v>223</v>
+      </c>
+      <c r="C101" t="s">
+        <v>184</v>
       </c>
       <c r="D101" t="s">
         <v>45</v>
@@ -4527,49 +4150,52 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>239</v>
+        <v>213</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>53</v>
+        <v>224</v>
       </c>
       <c r="C102" t="s">
-        <v>240</v>
+        <v>183</v>
+      </c>
+      <c r="D102" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>239</v>
+        <v>214</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>226</v>
+        <v>53</v>
       </c>
       <c r="C103" t="s">
-        <v>241</v>
-      </c>
-      <c r="D103" t="s">
-        <v>45</v>
+        <v>225</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>239</v>
+        <v>214</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>242</v>
+        <v>48</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>55</v>
+        <v>77</v>
+      </c>
+      <c r="D104" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>239</v>
+        <v>214</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="C105" t="s">
-        <v>190</v>
+        <v>50</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>78</v>
       </c>
       <c r="D105" t="s">
         <v>45</v>
@@ -4577,38 +4203,38 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>230</v>
+        <v>53</v>
       </c>
       <c r="C106" t="s">
-        <v>189</v>
-      </c>
-      <c r="D106" t="s">
-        <v>45</v>
+        <v>227</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>53</v>
+        <v>220</v>
       </c>
       <c r="C107" t="s">
-        <v>245</v>
+        <v>228</v>
+      </c>
+      <c r="D107" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C108" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
       <c r="D108" t="s">
         <v>45</v>
@@ -4616,13 +4242,13 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="C109" s="13" t="s">
-        <v>251</v>
+        <v>223</v>
+      </c>
+      <c r="C109" t="s">
+        <v>184</v>
       </c>
       <c r="D109" t="s">
         <v>45</v>
@@ -4630,13 +4256,13 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="C110" s="13" t="s">
-        <v>191</v>
+        <v>224</v>
+      </c>
+      <c r="C110" t="s">
+        <v>183</v>
       </c>
       <c r="D110" t="s">
         <v>45</v>
@@ -4644,91 +4270,88 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>230</v>
+        <v>53</v>
       </c>
       <c r="C111" t="s">
-        <v>189</v>
-      </c>
-      <c r="D111" t="s">
-        <v>45</v>
+        <v>231</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C112" t="s">
-        <v>248</v>
+        <v>48</v>
+      </c>
+      <c r="C112" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D112" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="D113" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C114" s="15" t="s">
-        <v>249</v>
-      </c>
-      <c r="D114" t="s">
-        <v>45</v>
+        <v>53</v>
+      </c>
+      <c r="C114" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>53</v>
+        <v>220</v>
       </c>
       <c r="C115" t="s">
-        <v>254</v>
+        <v>235</v>
+      </c>
+      <c r="D115" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="C116" t="s">
-        <v>246</v>
-      </c>
-      <c r="D116" t="s">
-        <v>45</v>
+        <v>236</v>
+      </c>
+      <c r="C116" s="6" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C117" t="s">
-        <v>250</v>
+        <v>184</v>
       </c>
       <c r="D117" t="s">
         <v>45</v>
@@ -4736,13 +4359,13 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C118" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="D118" t="s">
         <v>45</v>
@@ -4750,52 +4373,52 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>230</v>
+        <v>53</v>
       </c>
       <c r="C119" t="s">
-        <v>189</v>
-      </c>
-      <c r="D119" t="s">
-        <v>45</v>
+        <v>240</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>53</v>
+        <v>220</v>
       </c>
       <c r="C120" t="s">
-        <v>255</v>
+        <v>241</v>
+      </c>
+      <c r="D120" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>48</v>
+        <v>236</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>70</v>
+        <v>122</v>
       </c>
       <c r="D121" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C122" s="15" t="s">
-        <v>249</v>
+        <v>223</v>
+      </c>
+      <c r="C122" t="s">
+        <v>191</v>
       </c>
       <c r="D122" t="s">
         <v>45</v>
@@ -4803,535 +4426,199 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>256</v>
+        <v>239</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>53</v>
+        <v>224</v>
       </c>
       <c r="C123" t="s">
-        <v>257</v>
+        <v>183</v>
+      </c>
+      <c r="D123" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A124" t="s">
-        <v>256</v>
-      </c>
-      <c r="B124" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="C124" t="s">
-        <v>246</v>
-      </c>
-      <c r="D124" t="s">
-        <v>45</v>
-      </c>
+      <c r="B124" s="6"/>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A125" t="s">
-        <v>256</v>
-      </c>
-      <c r="B125" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="C125" t="s">
-        <v>258</v>
-      </c>
-      <c r="D125" t="s">
-        <v>45</v>
-      </c>
+      <c r="B125" s="6"/>
+      <c r="C125" s="6"/>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A126" t="s">
-        <v>256</v>
-      </c>
-      <c r="B126" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="C126" t="s">
-        <v>193</v>
-      </c>
-      <c r="D126" t="s">
-        <v>45</v>
-      </c>
+      <c r="B126" s="6"/>
+      <c r="C126" s="13"/>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A127" t="s">
-        <v>256</v>
-      </c>
-      <c r="B127" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="C127" t="s">
-        <v>189</v>
-      </c>
-      <c r="D127" t="s">
-        <v>45</v>
-      </c>
+      <c r="B127" s="6"/>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A128" t="s">
-        <v>259</v>
-      </c>
-      <c r="B128" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C128" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A129" t="s">
-        <v>259</v>
-      </c>
-      <c r="B129" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C129" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="D129" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A130" t="s">
-        <v>259</v>
-      </c>
-      <c r="B130" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C130" s="15" t="s">
-        <v>249</v>
-      </c>
-      <c r="D130" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A131" t="s">
-        <v>264</v>
-      </c>
-      <c r="B131" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C131" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A132" t="s">
-        <v>264</v>
-      </c>
-      <c r="B132" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="C132" t="s">
-        <v>246</v>
-      </c>
-      <c r="D132" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A133" t="s">
-        <v>264</v>
-      </c>
-      <c r="B133" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="C133" t="s">
-        <v>268</v>
-      </c>
-      <c r="D133" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A134" t="s">
-        <v>264</v>
-      </c>
-      <c r="B134" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="C134" t="s">
-        <v>194</v>
-      </c>
-      <c r="D134" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A135" t="s">
-        <v>264</v>
-      </c>
-      <c r="B135" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="C135" t="s">
-        <v>189</v>
-      </c>
-      <c r="D135" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A136" t="s">
-        <v>266</v>
-      </c>
-      <c r="B136" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C136" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A137" t="s">
-        <v>266</v>
-      </c>
-      <c r="B137" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C137" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D137" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A138" t="s">
-        <v>266</v>
-      </c>
-      <c r="B138" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C138" s="15" t="s">
-        <v>249</v>
-      </c>
-      <c r="D138" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A139" t="s">
-        <v>270</v>
-      </c>
-      <c r="B139" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C139" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A140" t="s">
-        <v>270</v>
-      </c>
-      <c r="B140" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="C140" t="s">
-        <v>246</v>
-      </c>
-      <c r="D140" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A141" t="s">
-        <v>270</v>
-      </c>
-      <c r="B141" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="C141" t="s">
-        <v>272</v>
-      </c>
-      <c r="D141" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A142" t="s">
-        <v>270</v>
-      </c>
-      <c r="B142" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="C142" t="s">
-        <v>195</v>
-      </c>
-      <c r="D142" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A143" t="s">
-        <v>270</v>
-      </c>
-      <c r="B143" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="C143" t="s">
-        <v>189</v>
-      </c>
-      <c r="D143" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A144" t="s">
-        <v>273</v>
-      </c>
-      <c r="B144" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C144" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A145" t="s">
-        <v>273</v>
-      </c>
-      <c r="B145" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C145" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="D145" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A146" t="s">
-        <v>273</v>
-      </c>
-      <c r="B146" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C146" s="15" t="s">
-        <v>249</v>
-      </c>
-      <c r="D146" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A147" t="s">
-        <v>276</v>
-      </c>
-      <c r="B147" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C147" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A148" t="s">
-        <v>276</v>
-      </c>
-      <c r="B148" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="C148" t="s">
-        <v>246</v>
-      </c>
-      <c r="D148" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A149" t="s">
-        <v>276</v>
-      </c>
-      <c r="B149" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="C149" t="s">
-        <v>278</v>
-      </c>
-      <c r="D149" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A150" t="s">
-        <v>276</v>
-      </c>
-      <c r="B150" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="C150" t="s">
-        <v>196</v>
-      </c>
-      <c r="D150" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A151" t="s">
-        <v>276</v>
-      </c>
-      <c r="B151" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="C151" t="s">
-        <v>189</v>
-      </c>
-      <c r="D151" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A152" t="s">
-        <v>279</v>
-      </c>
-      <c r="B152" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C152" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A153" t="s">
-        <v>279</v>
-      </c>
-      <c r="B153" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C153" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D153" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A154" t="s">
-        <v>279</v>
-      </c>
-      <c r="B154" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C154" s="15" t="s">
-        <v>249</v>
-      </c>
-      <c r="D154" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A155" t="s">
-        <v>282</v>
-      </c>
-      <c r="B155" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C155" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A156" t="s">
-        <v>282</v>
-      </c>
-      <c r="B156" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="C156" t="s">
-        <v>284</v>
-      </c>
-      <c r="D156" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A157" t="s">
-        <v>282</v>
-      </c>
-      <c r="B157" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="C157" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="D157" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A158" t="s">
-        <v>282</v>
-      </c>
-      <c r="B158" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="C158" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="D158" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A159" t="s">
-        <v>282</v>
-      </c>
-      <c r="B159" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="C159" t="s">
-        <v>189</v>
-      </c>
-      <c r="D159" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B128" s="6"/>
+    </row>
+    <row r="129" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B129" s="6"/>
+    </row>
+    <row r="130" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B130" s="6"/>
+    </row>
+    <row r="131" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B131" s="6"/>
+    </row>
+    <row r="132" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B132" s="6"/>
+    </row>
+    <row r="133" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B133" s="6"/>
+      <c r="C133" s="6"/>
+    </row>
+    <row r="134" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B134" s="6"/>
+      <c r="C134" s="13"/>
+    </row>
+    <row r="135" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B135" s="6"/>
+    </row>
+    <row r="136" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B136" s="6"/>
+    </row>
+    <row r="137" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B137" s="6"/>
+    </row>
+    <row r="138" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B138" s="6"/>
+    </row>
+    <row r="139" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B139" s="6"/>
+    </row>
+    <row r="140" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B140" s="6"/>
+    </row>
+    <row r="141" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B141" s="6"/>
+      <c r="C141" s="6"/>
+    </row>
+    <row r="142" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B142" s="6"/>
+      <c r="C142" s="13"/>
+    </row>
+    <row r="143" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B143" s="6"/>
+    </row>
+    <row r="144" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B144" s="6"/>
+    </row>
+    <row r="145" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B145" s="6"/>
+    </row>
+    <row r="146" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B146" s="6"/>
+    </row>
+    <row r="147" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B147" s="6"/>
+    </row>
+    <row r="148" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B148" s="6"/>
+    </row>
+    <row r="149" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B149" s="6"/>
+      <c r="C149" s="6"/>
+    </row>
+    <row r="150" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B150" s="6"/>
+      <c r="C150" s="13"/>
+    </row>
+    <row r="151" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B151" s="6"/>
+    </row>
+    <row r="152" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B152" s="6"/>
+    </row>
+    <row r="153" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B153" s="6"/>
+    </row>
+    <row r="154" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B154" s="6"/>
+    </row>
+    <row r="155" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B155" s="6"/>
+    </row>
+    <row r="156" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B156" s="6"/>
+    </row>
+    <row r="157" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B157" s="6"/>
+      <c r="C157" s="6"/>
+    </row>
+    <row r="158" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B158" s="6"/>
+      <c r="C158" s="13"/>
+    </row>
+    <row r="159" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B159" s="6"/>
+    </row>
+    <row r="160" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B160" s="6"/>
     </row>
     <row r="161" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B161" s="6"/>
-      <c r="C161" s="6"/>
     </row>
     <row r="162" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B162" s="6"/>
-      <c r="C162" s="15"/>
+    </row>
+    <row r="163" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B163" s="6"/>
+    </row>
+    <row r="164" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B164" s="6"/>
+    </row>
+    <row r="165" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B165" s="6"/>
+      <c r="C165" s="6"/>
+    </row>
+    <row r="166" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B166" s="6"/>
+      <c r="C166" s="13"/>
+    </row>
+    <row r="172" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B172" s="6"/>
+    </row>
+    <row r="173" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B173" s="6"/>
+      <c r="C173" s="6"/>
+    </row>
+    <row r="174" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B174" s="6"/>
+      <c r="C174" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C43" r:id="rId1" display="http://w3id.org/solar/i/Input/Catalyst/{ID}-{Catalyst}" xr:uid="{33CD0375-FDC4-864D-8BAE-CF58136577F6}"/>
-    <hyperlink ref="C44" r:id="rId2" display="http://w3id.org/solar/i/Input/Co-catalyst/{ID}-{Co_catalyst}" xr:uid="{87955B5B-4B6D-4B4A-B115-3F447052E311}"/>
-    <hyperlink ref="C47" r:id="rId3" display="http://w3id.org/solar/i/Input/Support/{ID}-{Support}" xr:uid="{3D40A9A3-79A8-4048-A619-0101D21BBBDB}"/>
-    <hyperlink ref="C45" r:id="rId4" display="http://w3id.org/solar/i/Input/Co-catalyst/{ID}-{co_catalyst_2}" xr:uid="{DF6AE900-F5E5-1A46-90FE-9B17C12CD5EA}"/>
-    <hyperlink ref="C46" r:id="rId5" display="http://w3id.org/solar/i/Input/Co-catalyst/{ID}-{co_catalyst_3}" xr:uid="{26286F07-CF01-3D4F-AF7E-24B1DFF4CAC5}"/>
-    <hyperlink ref="C48" r:id="rId6" display="http://w3id.org/solar/i/Input/Dopant/{ID}-{Dopant}" xr:uid="{250FC759-8E91-AD4E-BB93-AAF3872DC404}"/>
-    <hyperlink ref="C50" r:id="rId7" display="http://w3id.org/solar/i/Input/Reductant/{ID}-{Reductant}" xr:uid="{5D2E891D-0452-324E-AC63-3B5EB8FCC576}"/>
-    <hyperlink ref="C51" r:id="rId8" display="http://w3id.org/solar/i/Condition/LightSource/{ID}" xr:uid="{EFCC2B08-8773-C547-9417-6D50A357579D}"/>
-    <hyperlink ref="C52" r:id="rId9" display="http://w3id.org/solar/i/Condition/pH/{ID}" xr:uid="{4ED7AA7D-0161-9048-913F-4E262F489078}"/>
-    <hyperlink ref="C54" r:id="rId10" display="http://w3id.org/solar/i/Condition/Pressure/{ID}" xr:uid="{D4B94815-2A3D-554A-9A3A-D6C41768932F}"/>
-    <hyperlink ref="C55" r:id="rId11" display="http://w3id.org/solar/i/Condition/Temperature/{ID}" xr:uid="{B9A4BC97-C4E7-CB40-BDEE-3FC54B1A15F8}"/>
-    <hyperlink ref="C56" r:id="rId12" display="http://w3id.org/solar/i/Condition/Time/{ID}" xr:uid="{1A254817-AA29-4349-9F3D-1F08E4B7BC6D}"/>
-    <hyperlink ref="C57" r:id="rId13" location="{Reaction_medium}Medium" display="http://w3id.org/solar/o/core#{Reaction_medium}Medium" xr:uid="{9FFFB41F-40DA-E844-8105-33FA71783875}"/>
-    <hyperlink ref="C75" r:id="rId14" location="{Wavelength_nm}WL" display="http://w3id.org/solar/o/core#{Wavelength_nm}WL" xr:uid="{CDAAFAD0-E55A-C64F-A0E5-874107AAA07C}"/>
-    <hyperlink ref="C76" r:id="rId15" display="http://w3id.org/solar/i/IlluminatedArea/{ID}" xr:uid="{D635B011-750E-414E-91E7-5327241CF37A}"/>
-    <hyperlink ref="C77:C78" r:id="rId16" display="http://w3id.org/solar/i/IlluminatedArea/{ID}" xr:uid="{4DFEDC35-DAA6-804C-B0F6-2CAF9BC91727}"/>
-    <hyperlink ref="C77" r:id="rId17" display="http://w3id.org/solar/i/Power/{ID}" xr:uid="{1D48B95E-8BAD-E044-A7A5-74EFE823C221}"/>
-    <hyperlink ref="C78" r:id="rId18" display="http://w3id.org/solar/i/Irradiance/{ID}" xr:uid="{6118BC49-CEA9-7C4E-ABE8-63EA5ED604C9}"/>
-    <hyperlink ref="C49" r:id="rId19" display="http://w3id.org/solar/i/Input/Dye/{ID}-{Dyes}" xr:uid="{BD436ABE-9765-184F-AB49-2AAD056EA2AC}"/>
-    <hyperlink ref="C53" r:id="rId20" location="{Reactor_type}Reactor" display="http://w3id.org/solar/o/core#{Reactor_type}Reactor" xr:uid="{12796564-401A-904D-BA88-6DE0252945FE}"/>
-    <hyperlink ref="C60" r:id="rId21" display="http://w3id.org/solar/i/Condition/ReactorResidenceTime/{ID}" xr:uid="{4A57F8C9-3F6B-F346-9C06-14ACCD76C291}"/>
-    <hyperlink ref="C59" r:id="rId22" display="http://w3id.org/solar/i/Condition/ReactorVolume/{ID}" xr:uid="{D05AEF8F-000B-5243-AA02-25149BFE83E8}"/>
+    <hyperlink ref="C55" r:id="rId1" display="http://w3id.org/solar/i/Input/Catalyst/{ID}-{Catalyst}" xr:uid="{33CD0375-FDC4-864D-8BAE-CF58136577F6}"/>
+    <hyperlink ref="C56" r:id="rId2" display="http://w3id.org/solar/i/Input/Co-catalyst/{ID}-{Co_catalyst}" xr:uid="{87955B5B-4B6D-4B4A-B115-3F447052E311}"/>
+    <hyperlink ref="C59" r:id="rId3" display="http://w3id.org/solar/i/Input/Support/{ID}-{Support}" xr:uid="{3D40A9A3-79A8-4048-A619-0101D21BBBDB}"/>
+    <hyperlink ref="C57" r:id="rId4" display="http://w3id.org/solar/i/Input/Co-catalyst/{ID}-{co_catalyst_2}" xr:uid="{DF6AE900-F5E5-1A46-90FE-9B17C12CD5EA}"/>
+    <hyperlink ref="C58" r:id="rId5" display="http://w3id.org/solar/i/Input/Co-catalyst/{ID}-{co_catalyst_3}" xr:uid="{26286F07-CF01-3D4F-AF7E-24B1DFF4CAC5}"/>
+    <hyperlink ref="C60" r:id="rId6" display="http://w3id.org/solar/i/Input/Dopant/{ID}-{Dopant}" xr:uid="{250FC759-8E91-AD4E-BB93-AAF3872DC404}"/>
+    <hyperlink ref="C62" r:id="rId7" display="http://w3id.org/solar/i/Input/Reductant/{ID}-{Reductant}" xr:uid="{5D2E891D-0452-324E-AC63-3B5EB8FCC576}"/>
+    <hyperlink ref="C63" r:id="rId8" display="http://w3id.org/solar/i/Condition/LightSource/{ID}" xr:uid="{EFCC2B08-8773-C547-9417-6D50A357579D}"/>
+    <hyperlink ref="C64" r:id="rId9" display="http://w3id.org/solar/i/Condition/pH/{ID}" xr:uid="{4ED7AA7D-0161-9048-913F-4E262F489078}"/>
+    <hyperlink ref="C66" r:id="rId10" display="http://w3id.org/solar/i/Condition/Pressure/{ID}" xr:uid="{D4B94815-2A3D-554A-9A3A-D6C41768932F}"/>
+    <hyperlink ref="C67" r:id="rId11" display="http://w3id.org/solar/i/Condition/Temperature/{ID}" xr:uid="{B9A4BC97-C4E7-CB40-BDEE-3FC54B1A15F8}"/>
+    <hyperlink ref="C68" r:id="rId12" display="http://w3id.org/solar/i/Condition/Time/{ID}" xr:uid="{1A254817-AA29-4349-9F3D-1F08E4B7BC6D}"/>
+    <hyperlink ref="C69" r:id="rId13" location="{Reaction_medium}Medium" display="http://w3id.org/solar/o/core#{Reaction_medium}Medium" xr:uid="{9FFFB41F-40DA-E844-8105-33FA71783875}"/>
+    <hyperlink ref="C87" r:id="rId14" location="{Wavelength_nm}WL" display="http://w3id.org/solar/o/core#{Wavelength_nm}WL" xr:uid="{CDAAFAD0-E55A-C64F-A0E5-874107AAA07C}"/>
+    <hyperlink ref="C88" r:id="rId15" display="http://w3id.org/solar/i/IlluminatedArea/{ID}" xr:uid="{D635B011-750E-414E-91E7-5327241CF37A}"/>
+    <hyperlink ref="C89:C90" r:id="rId16" display="http://w3id.org/solar/i/IlluminatedArea/{ID}" xr:uid="{4DFEDC35-DAA6-804C-B0F6-2CAF9BC91727}"/>
+    <hyperlink ref="C89" r:id="rId17" display="http://w3id.org/solar/i/Power/{ID}" xr:uid="{1D48B95E-8BAD-E044-A7A5-74EFE823C221}"/>
+    <hyperlink ref="C90" r:id="rId18" display="http://w3id.org/solar/i/Irradiance/{ID}" xr:uid="{6118BC49-CEA9-7C4E-ABE8-63EA5ED604C9}"/>
+    <hyperlink ref="C61" r:id="rId19" display="http://w3id.org/solar/i/Input/Dye/{ID}-{Dyes}" xr:uid="{BD436ABE-9765-184F-AB49-2AAD056EA2AC}"/>
+    <hyperlink ref="C65" r:id="rId20" location="{Reactor_type}Reactor" display="http://w3id.org/solar/o/core#{Reactor_type}Reactor" xr:uid="{12796564-401A-904D-BA88-6DE0252945FE}"/>
+    <hyperlink ref="C72" r:id="rId21" display="http://w3id.org/solar/i/Condition/ReactorResidenceTime/{ID}" xr:uid="{4A57F8C9-3F6B-F346-9C06-14ACCD76C291}"/>
+    <hyperlink ref="C71" r:id="rId22" display="http://w3id.org/solar/i/Condition/ReactorVolume/{ID}" xr:uid="{D05AEF8F-000B-5243-AA02-25149BFE83E8}"/>
     <hyperlink ref="C15" r:id="rId23" display="http://w3id.org/solar/i/Country/{institutions.country_code}" xr:uid="{2503A0AF-6306-B442-BAF4-FE5558F49054}"/>
     <hyperlink ref="C13" r:id="rId24" display="http://w3id.org/solar/i/Affiliation/{institutions.id}" xr:uid="{43608D61-A942-0444-9531-A10AB9261A99}"/>
     <hyperlink ref="C10" r:id="rId25" display="http://w3id.org/solar/i/Author/{authorships.author.orcid}" xr:uid="{4A64E9B0-01B7-7B4D-9DDC-33AFEBA4C9E6}"/>
-    <hyperlink ref="C42" r:id="rId26" display="http://w3id.org/solar/i/Article/{No_de_Ref}" xr:uid="{590C6980-47B5-A946-AD9A-4A310BA4F056}"/>
+    <hyperlink ref="C54" r:id="rId26" display="http://w3id.org/solar/i/Article/{No_de_Ref}" xr:uid="{590C6980-47B5-A946-AD9A-4A310BA4F056}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
